--- a/契約書関連_ゆうきくん/領収書.xlsx
+++ b/契約書関連_ゆうきくん/領収書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\契約書関連_ゆうきくん\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E903B4A0-13E1-487A-86A7-C98C767AC005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00951C5D-FEE0-45EB-B8C7-BCCE8C3ECD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3375" windowWidth="21585" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -145,14 +138,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>株式会社セブンネイ　　　様</t>
-    <rPh sb="12" eb="13">
+    <t>岡　勇太郎　　　様</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タロウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>サマ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>トータルコンサル費用</t>
+    <rPh sb="8" eb="10">
+      <t>ヒヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -267,33 +272,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +303,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -670,33 +673,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="3" spans="1:8">
       <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <f ca="1">TODAY()</f>
-        <v>44736</v>
+        <v>45129</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" t="s">
@@ -719,317 +722,314 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="19.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="7">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5">
         <f>H34</f>
-        <v>65560</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>475200</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12">
-        <v>59600</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="4">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9">
+        <v>432000</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="9">
         <f>IF(A15="","",D15*F15)</f>
-        <v>59600</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>432000</v>
+      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="11" t="str">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="10" t="str">
         <f>IF(A16="","",D16*F16)</f>
         <v/>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12" t="str">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9" t="str">
         <f t="shared" ref="G17:G30" si="0">IF(A17="","",D17*F17)</f>
         <v/>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="11.25" customHeight="1"/>
     <row r="32" spans="1:8">
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="8">
+      <c r="G32" s="12"/>
+      <c r="H32" s="6">
         <f>SUM(G15:H30)</f>
-        <v>59600</v>
+        <v>432000</v>
       </c>
     </row>
     <row r="33" spans="4:8">
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="9">
-        <f>H32*0.1</f>
-        <v>5960</v>
+      <c r="G33" s="11"/>
+      <c r="H33" s="7">
+        <f>ROUND(H32*0.1,0)</f>
+        <v>43200</v>
       </c>
     </row>
     <row r="34" spans="4:8" ht="19.5">
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="10">
+      <c r="G34" s="17"/>
+      <c r="H34" s="8">
         <f>SUM(H32:H33)</f>
-        <v>65560</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8">
-      <c r="H35" s="2"/>
+        <v>475200</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A20:C20"/>
@@ -1046,27 +1046,27 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
